--- a/simplified-arm-study-data.xlsx
+++ b/simplified-arm-study-data.xlsx
@@ -413,14 +413,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>1_Discomfort</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1_Competency</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1_Safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2_Discomfort</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2_Competency</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2_Safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3_Discomfort</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3_Competency</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3_Safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4_Discomfort</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4_Competency</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4_Safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5_Discomfort</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>5_Competency</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5_Safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>6_Discomfort</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>6_Competency</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>6_Safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>7_Discomfort</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>7_Competency</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>7_Safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>8_Discomfort</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>8_Competency</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>8_Safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>9_Discomfort</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>9_Competency</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>9_Safety</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/simplified-arm-study-data.xlsx
+++ b/simplified-arm-study-data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>1_Discomfort</t>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -434,19 +439,28 @@
           <t>1_Competency</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>3.916666666666667</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1_Safety</t>
-        </is>
+          <t>1_Discomfort</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4.958333333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2_Discomfort</t>
-        </is>
+          <t>1_Safety</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.916666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -455,19 +469,28 @@
           <t>2_Competency</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>5.541666666666667</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2_Safety</t>
-        </is>
+          <t>2_Discomfort</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5.291666666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3_Discomfort</t>
-        </is>
+          <t>2_Safety</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.083333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -476,19 +499,28 @@
           <t>3_Competency</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>4.416666666666667</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3_Safety</t>
-        </is>
+          <t>3_Discomfort</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.458333333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4_Discomfort</t>
-        </is>
+          <t>3_Safety</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.916666666666667</v>
       </c>
     </row>
     <row r="11">
@@ -497,19 +529,28 @@
           <t>4_Competency</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>4.083333333333333</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4_Safety</t>
-        </is>
+          <t>4_Discomfort</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3.958333333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5_Discomfort</t>
-        </is>
+          <t>4_Safety</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -518,19 +559,28 @@
           <t>5_Competency</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>4.041666666666667</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5_Safety</t>
-        </is>
+          <t>5_Discomfort</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4.583333333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6_Discomfort</t>
-        </is>
+          <t>5_Safety</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.75</v>
       </c>
     </row>
     <row r="17">
@@ -539,19 +589,28 @@
           <t>6_Competency</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>4.208333333333333</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6_Safety</t>
-        </is>
+          <t>6_Discomfort</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7_Discomfort</t>
-        </is>
+          <t>6_Safety</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3.166666666666667</v>
       </c>
     </row>
     <row r="20">
@@ -560,19 +619,28 @@
           <t>7_Competency</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7_Safety</t>
-        </is>
+          <t>7_Discomfort</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6.541666666666667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8_Discomfort</t>
-        </is>
+          <t>7_Safety</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="23">
@@ -581,19 +649,28 @@
           <t>8_Competency</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>3.625</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8_Safety</t>
-        </is>
+          <t>8_Discomfort</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>9_Discomfort</t>
-        </is>
+          <t>8_Safety</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2.583333333333333</v>
       </c>
     </row>
     <row r="26">
@@ -602,12 +679,28 @@
           <t>9_Competency</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>9_Discomfort</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>9_Safety</t>
         </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2.666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/simplified-arm-study-data.xlsx
+++ b/simplified-arm-study-data.xlsx
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1_Competency</t>
+          <t>1_Discomfort</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -446,7 +446,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1_Discomfort</t>
+          <t>1_Competency</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -466,7 +466,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2_Competency</t>
+          <t>2_Discomfort</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -476,7 +476,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2_Discomfort</t>
+          <t>2_Competency</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -496,7 +496,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3_Competency</t>
+          <t>3_Discomfort</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -506,7 +506,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3_Discomfort</t>
+          <t>3_Competency</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -526,7 +526,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4_Competency</t>
+          <t>4_Discomfort</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -536,7 +536,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4_Discomfort</t>
+          <t>4_Competency</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -556,7 +556,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5_Competency</t>
+          <t>5_Discomfort</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -566,7 +566,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5_Discomfort</t>
+          <t>5_Competency</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -586,7 +586,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6_Competency</t>
+          <t>6_Discomfort</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -596,7 +596,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6_Discomfort</t>
+          <t>6_Competency</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -616,7 +616,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7_Competency</t>
+          <t>7_Discomfort</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -626,7 +626,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7_Discomfort</t>
+          <t>7_Competency</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -646,7 +646,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8_Competency</t>
+          <t>8_Discomfort</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -656,7 +656,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8_Discomfort</t>
+          <t>8_Competency</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -676,7 +676,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>9_Competency</t>
+          <t>9_Discomfort</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -686,7 +686,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>9_Discomfort</t>
+          <t>9_Competency</t>
         </is>
       </c>
       <c r="B27" t="n">
